--- a/biology/Zoologie/Curtognathus_elegans/Curtognathus_elegans.xlsx
+++ b/biology/Zoologie/Curtognathus_elegans/Curtognathus_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Curtognathus est un genre fossile de conodontes. 
 </t>
@@ -511,18 +523,90 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Curtognathus est créé en 1933 par Edward Branson &amp; Maurice Mehl[1],[2].
-Selon les sources, le genre est soit affecté à la famille des Chirognathidae[2],[3], soit affecté à la famille des Distacodontidae[réf. nécessaire], soit il est placé comme incertae sedis, « de position incertaine »[réf. nécessaire]. 
-Fossiles
-Les différentes espèces ont été trouvées dans des terrains datant de l'Ordovicien.
-Liste des espèces
-† Curtognathus cordiformis Banson et Mehl
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Curtognathus est créé en 1933 par Edward Branson &amp; Maurice Mehl,.
+Selon les sources, le genre est soit affecté à la famille des Chirognathidae soit affecté à la famille des Distacodontidae[réf. nécessaire], soit il est placé comme incertae sedis, « de position incertaine »[réf. nécessaire]. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Curtognathus_elegans</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curtognathus_elegans</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les différentes espèces ont été trouvées dans des terrains datant de l'Ordovicien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Curtognathus_elegans</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curtognathus_elegans</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>† Curtognathus cordiformis Banson et Mehl
 † Curtognathus coronata
-† Curtognathus cristatus Moskalenko, 1970[4]
+† Curtognathus cristatus Moskalenko, 1970
 † Curtognathus ehatfieldensis (Stauffer)
-† Curtognathus elegans Moskalenko, 1970[4]
+† Curtognathus elegans Moskalenko, 1970
 † Curtognathus limitaris Branson et Mehl
 † Curtognathus peculiaris Branson et Mehl
 † Curtognathus robustus</t>
